--- a/UnifyNetSDK/dahua/netsdk/Exception/手动处理审查错误代码.xlsx
+++ b/UnifyNetSDK/dahua/netsdk/Exception/手动处理审查错误代码.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="处理格式" sheetId="1" r:id="rId1"/>
     <sheet name="生成代码" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3219,7 +3232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -4147,7 +4160,7 @@
   <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:B$1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -8424,7 +8437,7 @@
   <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -19220,7 +19233,7 @@
         <v>533</v>
       </c>
       <c r="E514" t="str">
-        <f>A514&amp;B514&amp;C514&amp;D514</f>
+        <f t="shared" ref="E514:E532" si="8">A514&amp;B514&amp;C514&amp;D514</f>
         <v>1326:"NET_ERROR_FACEMANAGER_FACE_DATA_PHOTO_INCOMPLETE",</v>
       </c>
       <c r="F514" t="s">
@@ -19241,7 +19254,7 @@
         <v>533</v>
       </c>
       <c r="E515" t="str">
-        <f>A515&amp;B515&amp;C515&amp;D515</f>
+        <f t="shared" si="8"/>
         <v>1327:"NET_ERROR_DATABASE_ERROR_INSERT_OVERFLOW",</v>
       </c>
       <c r="F515" t="s">
@@ -19262,7 +19275,7 @@
         <v>533</v>
       </c>
       <c r="E516" t="str">
-        <f>A516&amp;B516&amp;C516&amp;D516</f>
+        <f t="shared" si="8"/>
         <v>1328:"NET_ERROR_WORKSUIT_COMPARE_SERVER_GROUPID_EXCEED",</v>
       </c>
       <c r="F516" t="s">
@@ -19283,7 +19296,7 @@
         <v>533</v>
       </c>
       <c r="E517" t="str">
-        <f>A517&amp;B517&amp;C517&amp;D517</f>
+        <f t="shared" si="8"/>
         <v>1329:"NET_ERROR_WORKSUIT_COMPARE_SERVER_ABSTRACT_INIT_ERROR",</v>
       </c>
       <c r="F517" t="s">
@@ -19304,7 +19317,7 @@
         <v>533</v>
       </c>
       <c r="E518" t="str">
-        <f>A518&amp;B518&amp;C518&amp;D518</f>
+        <f t="shared" si="8"/>
         <v>1330:"NET_ERROR_WORKSUIT_COMPARE_SERVER_GROUPID_NOT_FOUND",</v>
       </c>
       <c r="F518" t="s">
@@ -19325,7 +19338,7 @@
         <v>533</v>
       </c>
       <c r="E519" t="str">
-        <f>A519&amp;B519&amp;C519&amp;D519</f>
+        <f t="shared" si="8"/>
         <v>1331:"NET_ERROR_WORKSUIT_COMPARE_SERVER_DATABASE_ERROR",</v>
       </c>
       <c r="F519" t="s">
@@ -19346,7 +19359,7 @@
         <v>533</v>
       </c>
       <c r="E520" t="str">
-        <f>A520&amp;B520&amp;C520&amp;D520</f>
+        <f t="shared" si="8"/>
         <v>1332:"NET_ERROR_WORKSUIT_COMPARE_SERVER_TOKEN_ERROR",</v>
       </c>
       <c r="F520" t="s">
@@ -19367,7 +19380,7 @@
         <v>533</v>
       </c>
       <c r="E521" t="str">
-        <f>A521&amp;B521&amp;C521&amp;D521</f>
+        <f t="shared" si="8"/>
         <v>1333:"NET_ERROR_WORKSUIT_COMPARE_SERVER_BEGINNUM_OVERRUN",</v>
       </c>
       <c r="F521" t="s">
@@ -19388,7 +19401,7 @@
         <v>533</v>
       </c>
       <c r="E522" t="str">
-        <f>A522&amp;B522&amp;C522&amp;D522</f>
+        <f t="shared" si="8"/>
         <v>1334:"NET_ERROR_WORKSUIT_COMPARE_SERVER_ABSTRACT_STATE",</v>
       </c>
       <c r="F522" t="s">
@@ -19409,7 +19422,7 @@
         <v>533</v>
       </c>
       <c r="E523" t="str">
-        <f>A523&amp;B523&amp;C523&amp;D523</f>
+        <f t="shared" si="8"/>
         <v>1335:"NET_ERROR_WORKSUIT_COMPARE_SERVER_BIGPIC_MAXNUM",</v>
       </c>
       <c r="F523" t="s">
@@ -19430,7 +19443,7 @@
         <v>533</v>
       </c>
       <c r="E524" t="str">
-        <f>A524&amp;B524&amp;C524&amp;D524</f>
+        <f t="shared" si="8"/>
         <v>1336:"NET_ERROR_WORKSUIT_COMPARE_SERVER_OBJECT_MAXNUM",</v>
       </c>
       <c r="F524" t="s">
@@ -19451,7 +19464,7 @@
         <v>533</v>
       </c>
       <c r="E525" t="str">
-        <f>A525&amp;B525&amp;C525&amp;D525</f>
+        <f t="shared" si="8"/>
         <v>1337:"NET_ERROR_WORKSUIT_COMPARE_SERVER_GROUP_SPACE_EXCEED",</v>
       </c>
       <c r="F525" t="s">
@@ -19472,7 +19485,7 @@
         <v>533</v>
       </c>
       <c r="E526" t="str">
-        <f>A526&amp;B526&amp;C526&amp;D526</f>
+        <f t="shared" si="8"/>
         <v>1338:"NET_ERROR_WORKSUIT_COMPARE_SERVER_ABSTRACTNUM_ZERO",</v>
       </c>
       <c r="F526" t="s">
@@ -19493,7 +19506,7 @@
         <v>533</v>
       </c>
       <c r="E527" t="str">
-        <f>A527&amp;B527&amp;C527&amp;D527</f>
+        <f t="shared" si="8"/>
         <v>1339:"NET_ERROR_WORKSUIT_COMPARE_SERVER_INVALID_PARAM",</v>
       </c>
       <c r="F527" t="s">
@@ -19514,7 +19527,7 @@
         <v>533</v>
       </c>
       <c r="E528" t="str">
-        <f>A528&amp;B528&amp;C528&amp;D528</f>
+        <f t="shared" si="8"/>
         <v>1340:"NET_ERROR_CARD_NOT_EXIST",</v>
       </c>
       <c r="F528" t="s">
@@ -19535,7 +19548,7 @@
         <v>533</v>
       </c>
       <c r="E529" t="str">
-        <f>A529&amp;B529&amp;C529&amp;D529</f>
+        <f t="shared" si="8"/>
         <v>1341:"NET_ERROR_TEMPORARY_OUTDATED",</v>
       </c>
       <c r="F529" t="s">
@@ -19556,7 +19569,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="str">
-        <f>A530&amp;B530&amp;C530&amp;D530</f>
+        <f t="shared" si="8"/>
         <v>1401:"NET_SUBBIZ_INVALID_SOCKET",</v>
       </c>
       <c r="F530" t="s">
@@ -19577,7 +19590,7 @@
         <v>533</v>
       </c>
       <c r="E531" t="str">
-        <f>A531&amp;B531&amp;C531&amp;D531</f>
+        <f t="shared" si="8"/>
         <v>1402:"NET_SUBBIZ_PAUSE_ERROR",</v>
       </c>
       <c r="F531" t="s">
@@ -19598,7 +19611,7 @@
         <v>533</v>
       </c>
       <c r="E532" t="str">
-        <f>A532&amp;B532&amp;C532&amp;D532</f>
+        <f t="shared" si="8"/>
         <v>1403:"NET_SUBBIZ_GET_PORT_ERROR",</v>
       </c>
       <c r="F532" t="s">
